--- a/target/test-classes/data/Demo4.xlsx
+++ b/target/test-classes/data/Demo4.xlsx
@@ -79,6 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -404,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
@@ -412,7 +413,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -537,82 +538,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>8596247861</v>
+        <v>8596247862</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>8596247862</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>15000</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>8596247863</v>
-      </c>
-      <c r="C9">
-        <v>65</v>
-      </c>
-      <c r="D9">
-        <v>40000</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>8596247864</v>
-      </c>
-      <c r="C10">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>25000</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
